--- a/biology/Zoologie/Attonitus/Attonitus.xlsx
+++ b/biology/Zoologie/Attonitus/Attonitus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Attonitus est un genre de poissons d'eau douce téléostéens de la famille des Characidae (ordre des Characiformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Attonitus se rencontrent en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Attonitus se rencontrent en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (16 janvier 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (16 janvier 2024) :
 Attonitus bounites Vari &amp; Ortega, 2000
 Attonitus ephimeros Vari &amp; Ortega, 2000
 Attonitus irisae Vari &amp; Ortega, 2000</t>
@@ -575,9 +591,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Attonitus Vari (d) &amp; Ortega (d), 2000[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Attonitus Vari (d) &amp; Ortega (d), 2000.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, du attonitus, « abasourdi ou étourdi », fait référence à l'apparence « bouche bée » que présentent les spécimens conservés[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, du attonitus, « abasourdi ou étourdi », fait référence à l'apparence « bouche bée » que présentent les spécimens conservés.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) R. P. Vari et H. Ortega, « Attonitus, a new genus of sexually dimorphic characiforms (Ostariophysi: Characidae) from western Amazonia; a phylogenetic definition and description of three new species », Ichthyological Exploration of Freshwaters, Allemagne, vol. 11, no 2,‎ 2000, p. 113-140 (ISSN 0936-9902).</t>
         </is>
